--- a/sample_batch_payment_links_v2.xlsx
+++ b/sample_batch_payment_links_v2.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\otherdirs\alpha7seas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF6D7F-F7BC-4F79-9D8C-17BF0F55022D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7294A38E-B673-49A0-91D0-E38A240B6513}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -470,7 +478,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J15" sqref="J1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -516,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="4">
-        <v>5777</v>
+        <v>577700</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>10</v>
@@ -531,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>13777</v>
+        <v>1377700</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>11</v>
@@ -545,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>20777</v>
+        <v>2077700</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -559,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>25777</v>
+        <v>2577700</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
@@ -573,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>35777</v>
+        <v>3577700</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -587,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>12777</v>
+        <v>1277700</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -601,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="F8">
-        <v>33777</v>
+        <v>3377700</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -615,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>16777</v>
+        <v>1677700</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
@@ -629,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>44777</v>
+        <v>4477700</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
